--- a/Tugas LifeGuidance.xlsx
+++ b/Tugas LifeGuidance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uji-Level-New\LifeGuidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8890ABC5-5ACD-4AF8-A8F8-D65186B73072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319782C-5EFC-4F6E-BC7D-9B04A357B949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E010181-6C75-4597-876C-C70D59170BCB}"/>
   </bookViews>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03583FCE-EA9B-44BD-BE2C-041C895D4E82}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
